--- a/grupos/6ALCM - Estadisticos 20242.xlsx
+++ b/grupos/6ALCM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>Materia</t>
   </si>
@@ -224,12 +224,12 @@
     <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
+    <t>Vazquez Galarza Maria Miriam</t>
+  </si>
+  <si>
     <t>Martinez Cortes Wendy Karyme</t>
   </si>
   <si>
-    <t>Vazquez Galarza Maria Miriam</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -248,9 +248,6 @@
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>PRADO</t>
-  </si>
-  <si>
     <t>LUGO</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
   </si>
   <si>
     <t>LINDA PAOLA</t>
-  </si>
-  <si>
-    <t>ANETTE</t>
   </si>
   <si>
     <t>ZAYRA</t>
@@ -795,22 +786,22 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -831,16 +822,16 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>10</v>
       </c>
       <c r="W4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -872,22 +863,22 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -923,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -949,22 +940,22 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -985,22 +976,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6">
         <v>10</v>
       </c>
       <c r="Y6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1026,22 +1017,22 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1068,16 +1059,16 @@
         <v>9</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1103,22 +1094,22 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1145,13 +1136,13 @@
         <v>8</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>9</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y8">
         <v>7</v>
@@ -1180,22 +1171,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1225,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="W9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1257,22 +1248,22 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1308,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1334,22 +1325,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1376,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -1385,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1411,22 +1402,22 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1447,22 +1438,22 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1488,22 +1479,22 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1524,22 +1515,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>10</v>
       </c>
       <c r="W13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1565,22 +1556,22 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1601,10 +1592,10 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V14">
         <v>10</v>
@@ -1616,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1642,22 +1633,22 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1684,16 +1675,16 @@
         <v>9</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1719,22 +1710,22 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1796,22 +1787,22 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1832,22 +1823,22 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17">
         <v>10</v>
       </c>
       <c r="W17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X17">
         <v>10</v>
       </c>
       <c r="Y17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1873,22 +1864,22 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1918,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="W18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y18">
         <v>9</v>
@@ -1950,22 +1941,22 @@
         <v>6</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1986,22 +1977,22 @@
         <v>-1</v>
       </c>
       <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
         <v>7</v>
       </c>
-      <c r="U19">
+      <c r="W19">
+        <v>8</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
         <v>7</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-      <c r="X19">
-        <v>7</v>
-      </c>
-      <c r="Y19">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2027,22 +2018,22 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2063,19 +2054,19 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V20">
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <v>8</v>
+      </c>
+      <c r="X20">
         <v>7</v>
-      </c>
-      <c r="W20">
-        <v>7</v>
-      </c>
-      <c r="X20">
-        <v>9</v>
       </c>
       <c r="Y20">
         <v>6</v>
@@ -2104,22 +2095,22 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2140,16 +2131,16 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X21">
         <v>9</v>
@@ -2181,22 +2172,22 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2226,13 +2217,13 @@
         <v>10</v>
       </c>
       <c r="W22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X22">
         <v>10</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2258,22 +2249,22 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2294,19 +2285,19 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <v>5</v>
       </c>
       <c r="W23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>6</v>
@@ -2335,22 +2326,22 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2377,16 +2368,16 @@
         <v>10</v>
       </c>
       <c r="V24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>10</v>
       </c>
       <c r="X24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2412,22 +2403,22 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2489,22 +2480,22 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2525,22 +2516,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V26">
         <v>10</v>
       </c>
       <c r="W26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X26">
         <v>9</v>
       </c>
       <c r="Y26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2566,22 +2557,22 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2611,13 +2602,13 @@
         <v>10</v>
       </c>
       <c r="W27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2643,22 +2634,22 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2720,22 +2711,22 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2756,16 +2747,16 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X29">
         <v>5</v>
@@ -2797,22 +2788,22 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2833,19 +2824,19 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y30">
         <v>7</v>
@@ -2874,22 +2865,22 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2925,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="Y31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2951,22 +2942,22 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2987,22 +2978,22 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V32">
         <v>10</v>
       </c>
       <c r="W32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y32">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3028,22 +3019,22 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3064,10 +3055,10 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V33">
         <v>10</v>
@@ -3079,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="Y33">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3105,22 +3096,22 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3156,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="Y34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3182,22 +3173,22 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3227,13 +3218,13 @@
         <v>10</v>
       </c>
       <c r="W35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X35">
         <v>10</v>
       </c>
       <c r="Y35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3259,22 +3250,22 @@
         <v>10</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3304,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="W36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X36">
         <v>10</v>
@@ -3336,22 +3327,22 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3378,10 +3369,10 @@
         <v>5</v>
       </c>
       <c r="V37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X37">
         <v>5</v>
@@ -3413,22 +3404,22 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3490,22 +3481,22 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3535,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="W39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X39">
         <v>10</v>
@@ -3567,22 +3558,22 @@
         <v>8</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3612,13 +3603,13 @@
         <v>10</v>
       </c>
       <c r="W40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3644,22 +3635,22 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>-1</v>
@@ -3721,22 +3712,22 @@
         <v>8</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3757,22 +3748,22 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V42">
         <v>10</v>
       </c>
       <c r="W42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X42">
         <v>10</v>
       </c>
       <c r="Y42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3798,22 +3789,22 @@
         <v>9</v>
       </c>
       <c r="H43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>-1</v>
@@ -3834,10 +3825,10 @@
         <v>-1</v>
       </c>
       <c r="T43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V43">
         <v>10</v>
@@ -3849,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="Y43">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -3875,22 +3866,22 @@
         <v>10</v>
       </c>
       <c r="H44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N44">
         <v>-1</v>
@@ -4080,7 +4071,7 @@
         <v>100</v>
       </c>
       <c r="M4">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -4098,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="S4">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4139,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="M5">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -4157,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="S5">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4198,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -4216,7 +4207,7 @@
         <v>100</v>
       </c>
       <c r="S6">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4242,13 +4233,13 @@
         <v>91.3</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -4257,16 +4248,16 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N7">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O7">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>100</v>
@@ -4275,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="S7">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4301,40 +4292,40 @@
         <v>91.3</v>
       </c>
       <c r="H8">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="I8">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J8">
         <v>90</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
       <c r="K8">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M8">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N8">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="O8">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="P8">
         <v>90</v>
       </c>
-      <c r="P8">
-        <v>100</v>
-      </c>
       <c r="Q8">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S8">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4360,40 +4351,40 @@
         <v>91.3</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I9">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
+        <v>94.5</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="N9">
         <v>92</v>
       </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>91.3</v>
-      </c>
-      <c r="N9">
-        <v>90</v>
-      </c>
       <c r="O9">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>92</v>
+        <v>94.5</v>
       </c>
       <c r="R9">
         <v>100</v>
       </c>
       <c r="S9">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4484,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -4493,7 +4484,7 @@
         <v>100</v>
       </c>
       <c r="M11">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -4502,7 +4493,7 @@
         <v>100</v>
       </c>
       <c r="P11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -4511,7 +4502,7 @@
         <v>100</v>
       </c>
       <c r="S11">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4537,16 +4528,16 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I12">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -4555,16 +4546,16 @@
         <v>100</v>
       </c>
       <c r="N12">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O12">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="P12">
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -4611,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="M13">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N13">
         <v>100</v>
@@ -4629,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="S13">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4670,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="M14">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -4688,7 +4679,7 @@
         <v>100</v>
       </c>
       <c r="S14">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4714,40 +4705,40 @@
         <v>91.3</v>
       </c>
       <c r="H15">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="I15">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L15">
         <v>100</v>
       </c>
       <c r="M15">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N15">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="O15">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P15">
         <v>100</v>
       </c>
       <c r="Q15">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R15">
         <v>100</v>
       </c>
       <c r="S15">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4773,40 +4764,40 @@
         <v>34.8</v>
       </c>
       <c r="H16">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I16">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>68</v>
+        <v>78.2</v>
       </c>
       <c r="L16">
         <v>100</v>
       </c>
       <c r="M16">
-        <v>34.8</v>
+        <v>51.1</v>
       </c>
       <c r="N16">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O16">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P16">
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>68</v>
+        <v>78.2</v>
       </c>
       <c r="R16">
         <v>100</v>
       </c>
       <c r="S16">
-        <v>34.8</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4847,7 +4838,7 @@
         <v>100</v>
       </c>
       <c r="M17">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -4865,7 +4856,7 @@
         <v>100</v>
       </c>
       <c r="S17">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4891,40 +4882,40 @@
         <v>91.3</v>
       </c>
       <c r="H18">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="J18">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="L18">
         <v>90</v>
       </c>
-      <c r="I18">
-        <v>85</v>
-      </c>
-      <c r="J18">
+      <c r="M18">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="N18">
         <v>92</v>
       </c>
-      <c r="K18">
-        <v>92</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>91.3</v>
-      </c>
-      <c r="N18">
+      <c r="O18">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="P18">
+        <v>96</v>
+      </c>
+      <c r="Q18">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="R18">
         <v>90</v>
       </c>
-      <c r="O18">
-        <v>85</v>
-      </c>
-      <c r="P18">
-        <v>92</v>
-      </c>
-      <c r="Q18">
-        <v>92</v>
-      </c>
-      <c r="R18">
-        <v>100</v>
-      </c>
       <c r="S18">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4950,40 +4941,40 @@
         <v>91.3</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I19">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J19">
+        <v>96</v>
+      </c>
+      <c r="K19">
+        <v>78.2</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="N19">
         <v>92</v>
       </c>
-      <c r="K19">
-        <v>76</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>91.3</v>
-      </c>
-      <c r="N19">
-        <v>90</v>
-      </c>
       <c r="O19">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P19">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q19">
-        <v>76</v>
+        <v>78.2</v>
       </c>
       <c r="R19">
         <v>100</v>
       </c>
       <c r="S19">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5009,40 +5000,40 @@
         <v>91.3</v>
       </c>
       <c r="H20">
-        <v>87.5</v>
+        <v>89.8</v>
       </c>
       <c r="I20">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J20">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>81.8</v>
       </c>
       <c r="L20">
         <v>100</v>
       </c>
       <c r="M20">
-        <v>91.3</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>87.5</v>
+        <v>89.8</v>
       </c>
       <c r="O20">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P20">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q20">
-        <v>76</v>
+        <v>81.8</v>
       </c>
       <c r="R20">
         <v>100</v>
       </c>
       <c r="S20">
-        <v>91.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5068,40 +5059,40 @@
         <v>91.3</v>
       </c>
       <c r="H21">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I21">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J21">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N21">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O21">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P21">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R21">
         <v>100</v>
       </c>
       <c r="S21">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5127,40 +5118,40 @@
         <v>91.3</v>
       </c>
       <c r="H22">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I22">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L22">
         <v>100</v>
       </c>
       <c r="M22">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N22">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O22">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P22">
         <v>100</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R22">
         <v>100</v>
       </c>
       <c r="S22">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5186,40 +5177,40 @@
         <v>91.3</v>
       </c>
       <c r="H23">
-        <v>87.5</v>
+        <v>89.8</v>
       </c>
       <c r="I23">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J23">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>91.3</v>
+        <v>80</v>
       </c>
       <c r="N23">
-        <v>87.5</v>
+        <v>89.8</v>
       </c>
       <c r="O23">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P23">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q23">
-        <v>68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S23">
-        <v>91.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5245,7 +5236,7 @@
         <v>91.3</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -5260,10 +5251,10 @@
         <v>100</v>
       </c>
       <c r="M24">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O24">
         <v>100</v>
@@ -5278,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="S24">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5310,7 +5301,7 @@
         <v>100</v>
       </c>
       <c r="J25">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25">
         <v>100</v>
@@ -5319,7 +5310,7 @@
         <v>100</v>
       </c>
       <c r="M25">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -5328,7 +5319,7 @@
         <v>100</v>
       </c>
       <c r="P25">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q25">
         <v>100</v>
@@ -5337,7 +5328,7 @@
         <v>100</v>
       </c>
       <c r="S25">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5363,40 +5354,40 @@
         <v>91.3</v>
       </c>
       <c r="H26">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="I26">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J26">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M26">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N26">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="O26">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P26">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q26">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S26">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5422,40 +5413,40 @@
         <v>91.3</v>
       </c>
       <c r="H27">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I27">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J27">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="L27">
         <v>80</v>
       </c>
       <c r="M27">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N27">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O27">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P27">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q27">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="R27">
         <v>80</v>
       </c>
       <c r="S27">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5496,7 +5487,7 @@
         <v>100</v>
       </c>
       <c r="M28">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -5514,7 +5505,7 @@
         <v>100</v>
       </c>
       <c r="S28">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5540,40 +5531,40 @@
         <v>91.3</v>
       </c>
       <c r="H29">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="I29">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J29">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K29">
-        <v>72</v>
+        <v>78.2</v>
       </c>
       <c r="L29">
         <v>100</v>
       </c>
       <c r="M29">
-        <v>91.3</v>
+        <v>86.7</v>
       </c>
       <c r="N29">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="O29">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P29">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>78.2</v>
       </c>
       <c r="R29">
         <v>100</v>
       </c>
       <c r="S29">
-        <v>91.3</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5599,40 +5590,40 @@
         <v>91.3</v>
       </c>
       <c r="H30">
+        <v>92</v>
+      </c>
+      <c r="I30">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="J30">
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="L30">
         <v>90</v>
       </c>
-      <c r="I30">
-        <v>85</v>
-      </c>
-      <c r="J30">
-        <v>96</v>
-      </c>
-      <c r="K30">
-        <v>96</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
       <c r="M30">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N30">
+        <v>92</v>
+      </c>
+      <c r="O30">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="P30">
+        <v>84</v>
+      </c>
+      <c r="Q30">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="R30">
         <v>90</v>
       </c>
-      <c r="O30">
-        <v>85</v>
-      </c>
-      <c r="P30">
-        <v>96</v>
-      </c>
-      <c r="Q30">
-        <v>96</v>
-      </c>
-      <c r="R30">
-        <v>100</v>
-      </c>
       <c r="S30">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5664,7 +5655,7 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -5673,7 +5664,7 @@
         <v>100</v>
       </c>
       <c r="M31">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N31">
         <v>100</v>
@@ -5682,7 +5673,7 @@
         <v>100</v>
       </c>
       <c r="P31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q31">
         <v>100</v>
@@ -5691,7 +5682,7 @@
         <v>100</v>
       </c>
       <c r="S31">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5717,13 +5708,13 @@
         <v>91.3</v>
       </c>
       <c r="H32">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="I32">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -5732,16 +5723,16 @@
         <v>100</v>
       </c>
       <c r="M32">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N32">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="O32">
-        <v>85</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q32">
         <v>100</v>
@@ -5750,7 +5741,7 @@
         <v>100</v>
       </c>
       <c r="S32">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5776,10 +5767,10 @@
         <v>91.3</v>
       </c>
       <c r="H33">
-        <v>97.5</v>
+        <v>94.3</v>
       </c>
       <c r="I33">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -5791,13 +5782,13 @@
         <v>100</v>
       </c>
       <c r="M33">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N33">
-        <v>97.5</v>
+        <v>94.3</v>
       </c>
       <c r="O33">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -5809,7 +5800,7 @@
         <v>100</v>
       </c>
       <c r="S33">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5844,13 +5835,13 @@
         <v>100</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L34">
         <v>100</v>
       </c>
       <c r="M34">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N34">
         <v>100</v>
@@ -5862,13 +5853,13 @@
         <v>100</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R34">
         <v>100</v>
       </c>
       <c r="S34">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5894,40 +5885,40 @@
         <v>91.3</v>
       </c>
       <c r="H35">
-        <v>87.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I35">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J35">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L35">
         <v>100</v>
       </c>
       <c r="M35">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N35">
-        <v>87.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="O35">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P35">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R35">
         <v>100</v>
       </c>
       <c r="S35">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5962,13 +5953,13 @@
         <v>100</v>
       </c>
       <c r="K36">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L36">
         <v>100</v>
       </c>
       <c r="M36">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -5980,13 +5971,13 @@
         <v>100</v>
       </c>
       <c r="Q36">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R36">
         <v>100</v>
       </c>
       <c r="S36">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -6012,40 +6003,40 @@
         <v>65.2</v>
       </c>
       <c r="H37">
-        <v>82.5</v>
+        <v>87.5</v>
       </c>
       <c r="I37">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>68</v>
+        <v>67.3</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M37">
-        <v>65.2</v>
+        <v>66.7</v>
       </c>
       <c r="N37">
-        <v>82.5</v>
+        <v>87.5</v>
       </c>
       <c r="O37">
-        <v>85</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P37">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Q37">
-        <v>68</v>
+        <v>67.3</v>
       </c>
       <c r="R37">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S37">
-        <v>65.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6086,7 +6077,7 @@
         <v>100</v>
       </c>
       <c r="M38">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N38">
         <v>100</v>
@@ -6104,7 +6095,7 @@
         <v>100</v>
       </c>
       <c r="S38">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6145,7 +6136,7 @@
         <v>100</v>
       </c>
       <c r="M39">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N39">
         <v>100</v>
@@ -6163,7 +6154,7 @@
         <v>100</v>
       </c>
       <c r="S39">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6189,10 +6180,10 @@
         <v>91.3</v>
       </c>
       <c r="H40">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="I40">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -6204,13 +6195,13 @@
         <v>100</v>
       </c>
       <c r="M40">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N40">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="O40">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P40">
         <v>100</v>
@@ -6222,7 +6213,7 @@
         <v>100</v>
       </c>
       <c r="S40">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6263,7 +6254,7 @@
         <v>100</v>
       </c>
       <c r="M41">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N41">
         <v>100</v>
@@ -6281,7 +6272,7 @@
         <v>100</v>
       </c>
       <c r="S41">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6307,40 +6298,40 @@
         <v>91.3</v>
       </c>
       <c r="H42">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I42">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J42">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="L42">
         <v>100</v>
       </c>
       <c r="M42">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N42">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O42">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P42">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q42">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="R42">
         <v>100</v>
       </c>
       <c r="S42">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6381,7 +6372,7 @@
         <v>100</v>
       </c>
       <c r="M43">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N43">
         <v>100</v>
@@ -6399,7 +6390,7 @@
         <v>100</v>
       </c>
       <c r="S43">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6425,7 +6416,7 @@
         <v>91.3</v>
       </c>
       <c r="H44">
-        <v>97.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -6440,10 +6431,10 @@
         <v>100</v>
       </c>
       <c r="M44">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N44">
-        <v>97.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O44">
         <v>100</v>
@@ -6458,7 +6449,7 @@
         <v>100</v>
       </c>
       <c r="S44">
-        <v>91.3</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6539,7 +6530,7 @@
         <v>4.9</v>
       </c>
       <c r="H2">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -6559,19 +6550,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>95.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -6603,7 +6594,7 @@
         <v>2.4</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6635,7 +6626,7 @@
         <v>2.4</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6646,7 +6637,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -6667,7 +6658,7 @@
         <v>2.4</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6678,7 +6669,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -6687,19 +6678,19 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6752,7 +6743,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6793,10 +6784,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -6816,10 +6807,10 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -6839,16 +6830,16 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -6856,22 +6847,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920116</v>
+        <v>22330051920095</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6879,22 +6870,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920095</v>
+        <v>22330051920100</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6902,70 +6893,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920098</v>
+        <v>22330051920107</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>22330051920100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>22330051920107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9">
         <v>5</v>
       </c>
     </row>
